--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,25 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T19:45:00+01:00</t>
+    <t>2023-03-02T21:18:11+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>Nils Haendly</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -233,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -333,28 +327,20 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -376,12 +362,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,19 +57,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:55:41+01:00</t>
+    <t>2023-03-02T22:37:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Nils Haendly</t>
+    <t>HL7 International - [Some] Work Group</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -227,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -327,20 +333,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -362,12 +376,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:11:54+01:00</t>
+    <t>2023-03-06T14:45:09+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:45:09+01:00</t>
+    <t>2023-03-06T15:09:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T15:09:59+01:00</t>
+    <t>2023-03-06T16:00:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:00:54+01:00</t>
+    <t>2023-03-06T16:38:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T16:38:28+01:00</t>
+    <t>2023-03-06T17:18:53+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T17:18:53+01:00</t>
+    <t>2023-03-06T21:43:48+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T21:43:48+01:00</t>
+    <t>2023-03-07T20:03:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T20:03:22+01:00</t>
+    <t>2023-03-08T09:48:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T09:48:37+01:00</t>
+    <t>2023-03-09T13:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T13:29:22+01:00</t>
+    <t>2023-03-10T10:38:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-10T10:38:26+01:00</t>
+    <t>2023-03-13T12:04:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T12:04:54+01:00</t>
+    <t>2023-03-14T13:58:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T13:58:26+01:00</t>
+    <t>2023-03-14T20:28:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://somewhere.org/fhir/uv/myig/ValueSet/vs-administrative-gender</t>
+    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-administrative-gender</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T20:28:45+01:00</t>
+    <t>2023-03-15T20:18:50+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/de/myig/ValueSet/vs-administrative-gender</t>
+    <t>http://fhir.org/de/ValueSet/vs-administrative-gender</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>VS AdministrativeGender</t>
+    <t>Administrative gender</t>
   </si>
   <si>
     <t>Status</t>
@@ -54,16 +54,19 @@
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:18:50+01:00</t>
+    <t>2023-03-16T15:14:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>HL7 International - CDE Katalog Arbeitsgruppe</t>
   </si>
   <si>
     <t>Contact</t>
@@ -295,66 +298,68 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -376,12 +381,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.org/de/ValueSet/vs-administrative-gender</t>
+    <t>http://hl7.org/de/ValueSet/vs-administrative-gender</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:14:40+01:00</t>
+    <t>2023-03-16T17:46:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T17:46:04+01:00</t>
+    <t>2023-03-17T18:03:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-vs-administrative-gender.xlsx
+++ b/output/ValueSet-vs-administrative-gender.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
